--- a/intra/Resources/Template.xlsx
+++ b/intra/Resources/Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sovi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sovi/Projects/Sites/PPSS/intra/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7C1917-0E3F-2549-BA1E-141F407813E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3331E5-E683-9142-BC69-F374FE7CE259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12360" yWindow="2520" windowWidth="12980" windowHeight="16600" xr2:uid="{E33BEF01-BA33-2440-985D-3D74BA3E9BA0}"/>
   </bookViews>
@@ -25,18 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>PRODUCTID</t>
-  </si>
-  <si>
-    <t>QUANTITY</t>
-  </si>
-  <si>
-    <t>LOTWH1</t>
-  </si>
-  <si>
-    <t>LOTWH2</t>
   </si>
 </sst>
 </file>
@@ -44,7 +35,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -77,7 +68,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EB4C6A-C36D-AC4F-9DB9-FD23DA5AE659}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -403,34 +394,19 @@
     <col min="1" max="1" width="22.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>4902777090603</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>6935953362261</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/intra/Resources/Template.xlsx
+++ b/intra/Resources/Template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sovi/Projects/Sites/PPSS/intra/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sovi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3331E5-E683-9142-BC69-F374FE7CE259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4452356-8E53-9249-8903-445F4DA69A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="2520" windowWidth="12980" windowHeight="16600" xr2:uid="{E33BEF01-BA33-2440-985D-3D74BA3E9BA0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>PRODUCTID</t>
+  </si>
+  <si>
+    <t>TEST1</t>
+  </si>
+  <si>
+    <t>SPECIALQTY</t>
+  </si>
+  <si>
+    <t>REASON</t>
   </si>
 </sst>
 </file>
@@ -382,31 +391,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EB4C6A-C36D-AC4F-9DB9-FD23DA5AE659}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>4902777090603</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>6935953362261</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/intra/Resources/Template.xlsx
+++ b/intra/Resources/Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sovi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sovi/Projects/Sites/PPSS/intra/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4452356-8E53-9249-8903-445F4DA69A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14785E58-08B2-564B-A87D-B15B5DAF5DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>PRODUCTID</t>
   </si>
@@ -33,10 +33,7 @@
     <t>TEST1</t>
   </si>
   <si>
-    <t>SPECIALQTY</t>
-  </si>
-  <si>
-    <t>REASON</t>
+    <t>REQUESTQTY</t>
   </si>
 </sst>
 </file>
@@ -392,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -403,27 +400,21 @@
     <col min="1" max="1" width="22.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/intra/Resources/Template.xlsx
+++ b/intra/Resources/Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sovi/Projects/Sites/PPSS/intra/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sovi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14785E58-08B2-564B-A87D-B15B5DAF5DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC44FE51-494F-0C49-9F26-EE2E91DFD0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PRODUCTID</t>
-  </si>
-  <si>
-    <t>TEST1</t>
   </si>
   <si>
     <t>REQUESTQTY</t>
@@ -389,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -405,15 +402,47 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="1">
+        <v>6933528755067</v>
       </c>
       <c r="B2">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>8801007166490</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>8801007036113</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>8801007039435</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>8851932315166</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
